--- a/Python/Book1.xlsx
+++ b/Python/Book1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FD98AC0-1F44-4CB8-88E1-4767BF74E010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F786B516-251D-4817-9582-0EEC353C43DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Table 0" sheetId="2" r:id="rId1"/>
@@ -19,7 +13,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Table 0'!$A$1:$N$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,15 +34,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{10DCA60A-8709-414F-9B77-3DCB896E8A43}" keepAlive="1" name="Query - Table 0" description="Connection to the 'Table 0' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - Table 0" description="Connection to the 'Table 0' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;Table 0&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [Table 0]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Column1</t>
   </si>
@@ -92,21 +86,12 @@
     <t>Dec 2023</t>
   </si>
   <si>
-    <t>Sales +</t>
-  </si>
-  <si>
-    <t>Expenses +</t>
-  </si>
-  <si>
     <t>Operating Profit</t>
   </si>
   <si>
     <t>OPM %</t>
   </si>
   <si>
-    <t>Other Income +</t>
-  </si>
-  <si>
     <t>Interest</t>
   </si>
   <si>
@@ -119,19 +104,25 @@
     <t>Tax %</t>
   </si>
   <si>
-    <t>Net Profit +</t>
-  </si>
-  <si>
     <t>EPS in Rs</t>
   </si>
   <si>
-    <t>Raw PDF</t>
+    <t>Sales </t>
+  </si>
+  <si>
+    <t>Expenses </t>
+  </si>
+  <si>
+    <t>Other Income </t>
+  </si>
+  <si>
+    <t>Net Profit </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +177,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{768B4F61-EAA9-47F7-99F4-6F5C608E6C74}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="15">
     <queryTableFields count="14">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -209,23 +200,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6358985-6065-4B40-A633-CF3CB9E49BEF}" name="Table_0" displayName="Table_0" ref="A1:N13" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:N13" xr:uid="{B6358985-6065-4B40-A633-CF3CB9E49BEF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_0" displayName="Table_0" ref="A1:N13" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N13"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{0043FFEA-7A1A-4C07-94DB-EE0485DBC100}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{6A4FEFA8-EADC-495C-8CB6-F14C3953C37B}" uniqueName="2" name="Dec 2020" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{667322F1-8261-400F-9D39-3EFE9F152102}" uniqueName="3" name="Mar 2021" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{3522D8B6-1537-40B1-B691-53FDCA3570AB}" uniqueName="4" name="Jun 2021" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{40436FC9-40E1-41CF-9FA4-B3A9367CA353}" uniqueName="5" name="Sep 2021" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{A21919CC-17BA-4B68-8AE3-162E8E27A487}" uniqueName="6" name="Dec 2021" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{E766ABA5-E540-4CC7-BF3D-FDA2CE134533}" uniqueName="7" name="Mar 2022" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{8A54CE59-F3A1-4AB7-A39A-11327FAF19DD}" uniqueName="8" name="Jun 2022" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{BAC1C693-C087-4CF2-A9BD-CFCFFFE280CA}" uniqueName="9" name="Sep 2022" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{2A2DFC7C-0CA8-4E5B-BBD7-BD49655D25D5}" uniqueName="10" name="Dec 2022" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{7BD6A34B-8FAA-4250-A79A-DE0E99F2587E}" uniqueName="11" name="Mar 2023" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{B01059B1-1749-4687-918E-6759DF9CA8EF}" uniqueName="12" name="Jun 2023" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{765B56E4-1AD5-4ECB-8992-08C43E27B0E4}" uniqueName="13" name="Sep 2023" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{32A91673-04D7-44C7-AA84-EA892A30AC74}" uniqueName="14" name="Dec 2023" queryTableFieldId="14"/>
+    <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="2" uniqueName="2" name="Dec 2020" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Mar 2021" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Jun 2021" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="Sep 2021" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Dec 2021" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Mar 2022" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="Jun 2022" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="Sep 2022" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="Dec 2022" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="Mar 2023" queryTableFieldId="11"/>
+    <tableColumn id="12" uniqueName="12" name="Jun 2023" queryTableFieldId="12"/>
+    <tableColumn id="13" uniqueName="13" name="Sep 2023" queryTableFieldId="13"/>
+    <tableColumn id="14" uniqueName="14" name="Dec 2023" queryTableFieldId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -274,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -326,7 +317,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -520,18 +511,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841FD96E-5F2E-4FFC-8F2E-9D2B013C3823}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +586,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>955</v>
@@ -639,7 +630,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>819</v>
@@ -683,7 +674,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>136</v>
@@ -727,7 +718,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0.14000000000000001</v>
@@ -771,7 +762,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -815,7 +806,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>195</v>
@@ -859,7 +850,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>57</v>
@@ -903,7 +894,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>-111</v>
@@ -947,7 +938,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -991,7 +982,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>-118</v>
@@ -1035,7 +1026,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>-0.11</v>
@@ -1078,9 +1069,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1091,7 +1080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2841E9A-B0FB-49F2-B34A-9F80628EF824}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
